--- a/doc/duty_20%-80%.xlsx
+++ b/doc/duty_20%-80%.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
   <si>
     <t>Trace Color</t>
   </si>
@@ -179,6 +179,30 @@
   </si>
   <si>
     <t>W(R5)+W(V9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dmax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phase shift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duty(w)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1566,6 +1590,37 @@
       </c>
       <c r="L30" s="1">
         <v>1.1544000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9">
+      <c r="E33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9">
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34">
+        <v>24</v>
+      </c>
+      <c r="H34">
+        <v>720</v>
+      </c>
+      <c r="I34">
+        <v>6283185</v>
       </c>
     </row>
   </sheetData>
